--- a/biology/Médecine/Effet_Martha_Mitchell/Effet_Martha_Mitchell.xlsx
+++ b/biology/Médecine/Effet_Martha_Mitchell/Effet_Martha_Mitchell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'effet Martha Mitchell est le processus par lequel un psychiatre, un psychologue ou un autre spécialiste de la santé mentale se trompe sur la perception qu'un patient a d'un événement pourtant bien réel, et l'interprète comme un délire, commettant ainsi une erreur médicale. Il a été nommé par le psychologue Brendan Maher (en) d'après Martha Mitchell, femme du procureur général des États-Unis sous l'administration Nixon, considérée comme folle lorsqu'elle affirmait que des autorités de la Maison blanche commettaient des actes illégaux[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'effet Martha Mitchell est le processus par lequel un psychiatre, un psychologue ou un autre spécialiste de la santé mentale se trompe sur la perception qu'un patient a d'un événement pourtant bien réel, et l'interprète comme un délire, commettant ainsi une erreur médicale. Il a été nommé par le psychologue Brendan Maher (en) d'après Martha Mitchell, femme du procureur général des États-Unis sous l'administration Nixon, considérée comme folle lorsqu'elle affirmait que des autorités de la Maison blanche commettaient des actes illégaux.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D'après Vaughan Bell et al.[2] parfois « des rapports improbables sont erronément déduits comme étant les symptômes d'une maladie mentale » du fait « d'un échec ou d'une incapacité pour vérifier si les évènements ont vraiment eu lieu, peu importe comment ils peuvent intuitivement apparaître comme improbables à un clinicien occupé. » Des exemples de telles situations sont :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D'après Vaughan Bell et al. parfois « des rapports improbables sont erronément déduits comme étant les symptômes d'une maladie mentale » du fait « d'un échec ou d'une incapacité pour vérifier si les évènements ont vraiment eu lieu, peu importe comment ils peuvent intuitivement apparaître comme improbables à un clinicien occupé. » Des exemples de telles situations sont :
 la poursuite par des criminels ;
 la surveillance par les forces de l'ordre ;
 l'infidélité du conjoint ;
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Martha Mitchell effect » (voir la liste des auteurs).</t>
         </is>
